--- a/Data/Excel/Proto/CookieStarEnhance.xlsx
+++ b/Data/Excel/Proto/CookieStarEnhance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E489353A-B706-4262-A1D2-14D9FB7E6B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D217338C-7347-495A-BF7F-75D75341D210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
+    <workbookView xWindow="1680" yWindow="3435" windowWidth="22980" windowHeight="11295" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
   </bookViews>
   <sheets>
     <sheet name="Cookie" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>StarExp</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -67,6 +63,10 @@
   </si>
   <si>
     <t>int:pk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoulStone</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1017,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
